--- a/project_booking_cab/Registered Passenger.xlsx
+++ b/project_booking_cab/Registered Passenger.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,10 +541,8 @@
           <t>dev.d</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>12345678</t>
-        </is>
+      <c r="B6" t="n">
+        <v>12345678</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -556,9 +554,223 @@
           <t>12</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>12</t>
+      <c r="E6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dv</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>dv</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>dv</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>dv</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>dv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>az</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>az</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>az</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>az</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>az</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>jkl</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>jkl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>jkl</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>jkl</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>jkl</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>qwrt</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>qwrt</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>qrt</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>qrt</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>qrt</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>po</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>po</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>po</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>po</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>po</t>
         </is>
       </c>
     </row>
